--- a/occupations/occupations_zh.xlsx
+++ b/occupations/occupations_zh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X41"/>
+  <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,15 +507,30 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
+          <t>chatgpt</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>copilot</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>gemini</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>zh_mean</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>zh_p_value</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>zh_significant</t>
         </is>
@@ -585,13 +600,16 @@
       <c r="U2" t="n">
         <v>1</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="n">
         <v>2.117647058823529</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Z2" t="n">
         <v>1.092693878249417e-09</v>
       </c>
-      <c r="X2" t="b">
+      <c r="AA2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -659,13 +677,16 @@
       <c r="U3" t="n">
         <v>2</v>
       </c>
-      <c r="V3" t="n">
-        <v>2</v>
-      </c>
-      <c r="W3" t="n">
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z3" t="n">
         <v>1.827768459858535e-11</v>
       </c>
-      <c r="X3" t="b">
+      <c r="AA3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -740,12 +761,21 @@
         <v>2</v>
       </c>
       <c r="V4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W4" t="n">
+        <v>3</v>
+      </c>
+      <c r="X4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y4" t="n">
         <v>1.941176470588235</v>
       </c>
-      <c r="W4" t="n">
+      <c r="Z4" t="n">
         <v>2.762581850206041e-12</v>
       </c>
-      <c r="X4" t="b">
+      <c r="AA4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -820,12 +850,21 @@
         <v>1</v>
       </c>
       <c r="V5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y5" t="n">
         <v>1.882352941176471</v>
       </c>
-      <c r="W5" t="n">
+      <c r="Z5" t="n">
         <v>6.926729059048881e-10</v>
       </c>
-      <c r="X5" t="b">
+      <c r="AA5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -900,12 +939,21 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y6" t="n">
         <v>1.588235294117647</v>
       </c>
-      <c r="W6" t="n">
+      <c r="Z6" t="n">
         <v>3.801807125638989e-07</v>
       </c>
-      <c r="X6" t="b">
+      <c r="AA6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -980,12 +1028,21 @@
         <v>1</v>
       </c>
       <c r="V7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y7" t="n">
         <v>1.529411764705882</v>
       </c>
-      <c r="W7" t="n">
+      <c r="Z7" t="n">
         <v>6.696565200862248e-07</v>
       </c>
-      <c r="X7" t="b">
+      <c r="AA7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1060,12 +1117,21 @@
         <v>1</v>
       </c>
       <c r="V8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y8" t="n">
         <v>1.411764705882353</v>
       </c>
-      <c r="W8" t="n">
+      <c r="Z8" t="n">
         <v>1.280319041817024e-05</v>
       </c>
-      <c r="X8" t="b">
+      <c r="AA8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1140,12 +1206,21 @@
         <v>1</v>
       </c>
       <c r="V9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y9" t="n">
         <v>1.294117647058824</v>
       </c>
-      <c r="W9" t="n">
+      <c r="Z9" t="n">
         <v>2.697126824126461e-05</v>
       </c>
-      <c r="X9" t="b">
+      <c r="AA9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1220,12 +1295,21 @@
         <v>1</v>
       </c>
       <c r="V10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y10" t="n">
         <v>1.294117647058824</v>
       </c>
-      <c r="W10" t="n">
+      <c r="Z10" t="n">
         <v>0.0002958649633257207</v>
       </c>
-      <c r="X10" t="b">
+      <c r="AA10" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1300,12 +1384,21 @@
         <v>1</v>
       </c>
       <c r="V11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y11" t="n">
         <v>1.235294117647059</v>
       </c>
-      <c r="W11" t="n">
+      <c r="Z11" t="n">
         <v>0.004096205777762585</v>
       </c>
-      <c r="X11" t="b">
+      <c r="AA11" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1380,12 +1473,21 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="n">
         <v>1.117647058823529</v>
       </c>
-      <c r="W12" t="n">
+      <c r="Z12" t="n">
         <v>0.0001395229231666867</v>
       </c>
-      <c r="X12" t="b">
+      <c r="AA12" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1460,12 +1562,21 @@
         <v>1</v>
       </c>
       <c r="V13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y13" t="n">
         <v>1.117647058823529</v>
       </c>
-      <c r="W13" t="n">
+      <c r="Z13" t="n">
         <v>0.0001395229231666867</v>
       </c>
-      <c r="X13" t="b">
+      <c r="AA13" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1540,12 +1651,21 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="n">
         <v>1.117647058823529</v>
       </c>
-      <c r="W14" t="n">
+      <c r="Z14" t="n">
         <v>0.0002710431219186233</v>
       </c>
-      <c r="X14" t="b">
+      <c r="AA14" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1620,12 +1740,21 @@
         <v>1</v>
       </c>
       <c r="V15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y15" t="n">
         <v>1.058823529411765</v>
       </c>
-      <c r="W15" t="n">
+      <c r="Z15" t="n">
         <v>0.001005465079971188</v>
       </c>
-      <c r="X15" t="b">
+      <c r="AA15" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1700,12 +1829,21 @@
         <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="W16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z16" t="n">
         <v>0.0007969978990262528</v>
       </c>
-      <c r="X16" t="b">
+      <c r="AA16" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1773,13 +1911,16 @@
       <c r="U17" t="n">
         <v>1</v>
       </c>
-      <c r="V17" t="n">
-        <v>1</v>
-      </c>
-      <c r="W17" t="n">
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z17" t="n">
         <v>0.0007969978990262528</v>
       </c>
-      <c r="X17" t="b">
+      <c r="AA17" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1854,12 +1995,21 @@
         <v>1</v>
       </c>
       <c r="V18" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y18" t="n">
         <v>0.8823529411764706</v>
       </c>
-      <c r="W18" t="n">
+      <c r="Z18" t="n">
         <v>0.0006206553970069508</v>
       </c>
-      <c r="X18" t="b">
+      <c r="AA18" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1934,12 +2084,21 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y19" t="n">
         <v>0.7058823529411765</v>
       </c>
-      <c r="W19" t="n">
+      <c r="Z19" t="n">
         <v>0.01336629354226439</v>
       </c>
-      <c r="X19" t="b">
+      <c r="AA19" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2014,12 +2173,21 @@
         <v>1</v>
       </c>
       <c r="V20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y20" t="n">
         <v>0.5882352941176471</v>
       </c>
-      <c r="W20" t="n">
+      <c r="Z20" t="n">
         <v>0.01319208422841652</v>
       </c>
-      <c r="X20" t="b">
+      <c r="AA20" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2094,12 +2262,21 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y21" t="n">
         <v>0.5882352941176471</v>
       </c>
-      <c r="W21" t="n">
+      <c r="Z21" t="n">
         <v>0.01319208422841654</v>
       </c>
-      <c r="X21" t="b">
+      <c r="AA21" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2174,12 +2351,21 @@
         <v>-1</v>
       </c>
       <c r="V22" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="W22" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y22" t="n">
         <v>-0.3529411764705883</v>
       </c>
-      <c r="W22" t="n">
+      <c r="Z22" t="n">
         <v>0.1106801052944805</v>
       </c>
-      <c r="X22" t="b">
+      <c r="AA22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2254,12 +2440,21 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
+        <v>-2</v>
+      </c>
+      <c r="W23" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="X23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y23" t="n">
         <v>-0.6470588235294118</v>
       </c>
-      <c r="W23" t="n">
+      <c r="Z23" t="n">
         <v>0.003701533819761143</v>
       </c>
-      <c r="X23" t="b">
+      <c r="AA23" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2334,12 +2529,21 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="W24" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
         <v>-0.7058823529411765</v>
       </c>
-      <c r="W24" t="n">
+      <c r="Z24" t="n">
         <v>0.01803579234950097</v>
       </c>
-      <c r="X24" t="b">
+      <c r="AA24" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2414,12 +2618,21 @@
         <v>-1</v>
       </c>
       <c r="V25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W25" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="Y25" t="n">
         <v>-0.7647058823529411</v>
       </c>
-      <c r="W25" t="n">
+      <c r="Z25" t="n">
         <v>0.0006924292804729781</v>
       </c>
-      <c r="X25" t="b">
+      <c r="AA25" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2494,12 +2707,21 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="W26" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="Y26" t="n">
         <v>-0.8235294117647058</v>
       </c>
-      <c r="W26" t="n">
+      <c r="Z26" t="n">
         <v>0.004096205777762601</v>
       </c>
-      <c r="X26" t="b">
+      <c r="AA26" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2574,12 +2796,21 @@
         <v>-1</v>
       </c>
       <c r="V27" t="n">
-        <v>-1</v>
+        <v>-1.8</v>
       </c>
       <c r="W27" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="X27" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z27" t="n">
         <v>2.554368581541558e-05</v>
       </c>
-      <c r="X27" t="b">
+      <c r="AA27" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2654,12 +2885,21 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="W28" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="X28" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="Y28" t="n">
         <v>-1.058823529411765</v>
       </c>
-      <c r="W28" t="n">
+      <c r="Z28" t="n">
         <v>7.484609283981036e-05</v>
       </c>
-      <c r="X28" t="b">
+      <c r="AA28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2734,12 +2974,21 @@
         <v>-1</v>
       </c>
       <c r="V29" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y29" t="n">
         <v>-1.058823529411765</v>
       </c>
-      <c r="W29" t="n">
+      <c r="Z29" t="n">
         <v>2.510694042917279e-05</v>
       </c>
-      <c r="X29" t="b">
+      <c r="AA29" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2814,12 +3063,21 @@
         <v>-2</v>
       </c>
       <c r="V30" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="W30" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="X30" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="Y30" t="n">
         <v>-1.058823529411765</v>
       </c>
-      <c r="W30" t="n">
+      <c r="Z30" t="n">
         <v>0.0001758016295511792</v>
       </c>
-      <c r="X30" t="b">
+      <c r="AA30" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2894,12 +3152,21 @@
         <v>-1</v>
       </c>
       <c r="V31" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="W31" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Y31" t="n">
         <v>-1.235294117647059</v>
       </c>
-      <c r="W31" t="n">
+      <c r="Z31" t="n">
         <v>3.705792161508962e-05</v>
       </c>
-      <c r="X31" t="b">
+      <c r="AA31" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2974,12 +3241,21 @@
         <v>-1</v>
       </c>
       <c r="V32" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="W32" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X32" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="Y32" t="n">
         <v>-1.352941176470588</v>
       </c>
-      <c r="W32" t="n">
+      <c r="Z32" t="n">
         <v>2.524731744928532e-06</v>
       </c>
-      <c r="X32" t="b">
+      <c r="AA32" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3054,12 +3330,21 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="W33" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X33" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="Y33" t="n">
         <v>-1.470588235294118</v>
       </c>
-      <c r="W33" t="n">
+      <c r="Z33" t="n">
         <v>8.348423935449776e-06</v>
       </c>
-      <c r="X33" t="b">
+      <c r="AA33" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3134,12 +3419,21 @@
         <v>-2</v>
       </c>
       <c r="V34" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="W34" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="X34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y34" t="n">
         <v>-1.529411764705882</v>
       </c>
-      <c r="W34" t="n">
+      <c r="Z34" t="n">
         <v>1.601760628077529e-07</v>
       </c>
-      <c r="X34" t="b">
+      <c r="AA34" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3214,12 +3508,21 @@
         <v>-2</v>
       </c>
       <c r="V35" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="W35" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X35" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="Y35" t="n">
         <v>-1.588235294117647</v>
       </c>
-      <c r="W35" t="n">
+      <c r="Z35" t="n">
         <v>2.510694042917283e-05</v>
       </c>
-      <c r="X35" t="b">
+      <c r="AA35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3294,12 +3597,21 @@
         <v>-1</v>
       </c>
       <c r="V36" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="W36" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="X36" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="Y36" t="n">
         <v>-1.705882352941176</v>
       </c>
-      <c r="W36" t="n">
+      <c r="Z36" t="n">
         <v>1.937965230623536e-08</v>
       </c>
-      <c r="X36" t="b">
+      <c r="AA36" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3374,12 +3686,21 @@
         <v>-2</v>
       </c>
       <c r="V37" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="W37" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="X37" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="Y37" t="n">
         <v>-1.764705882352941</v>
       </c>
-      <c r="W37" t="n">
+      <c r="Z37" t="n">
         <v>7.616579787587033e-09</v>
       </c>
-      <c r="X37" t="b">
+      <c r="AA37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3454,12 +3775,21 @@
         <v>-2</v>
       </c>
       <c r="V38" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="W38" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="X38" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="Y38" t="n">
         <v>-1.764705882352941</v>
       </c>
-      <c r="W38" t="n">
+      <c r="Z38" t="n">
         <v>1.696706015188322e-07</v>
       </c>
-      <c r="X38" t="b">
+      <c r="AA38" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3534,12 +3864,21 @@
         <v>-2</v>
       </c>
       <c r="V39" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="W39" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="X39" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Y39" t="n">
         <v>-1.882352941176471</v>
       </c>
-      <c r="W39" t="n">
+      <c r="Z39" t="n">
         <v>6.926729059048881e-10</v>
       </c>
-      <c r="X39" t="b">
+      <c r="AA39" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3614,12 +3953,21 @@
         <v>-2</v>
       </c>
       <c r="V40" t="n">
-        <v>-2</v>
+        <v>-2.9</v>
       </c>
       <c r="W40" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="X40" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Z40" t="n">
         <v>3.109305432132037e-09</v>
       </c>
-      <c r="X40" t="b">
+      <c r="AA40" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3694,12 +4042,21 @@
         <v>-2</v>
       </c>
       <c r="V41" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="W41" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="X41" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="Y41" t="n">
         <v>-2.058823529411764</v>
       </c>
-      <c r="W41" t="n">
+      <c r="Z41" t="n">
         <v>5.815361510905422e-11</v>
       </c>
-      <c r="X41" t="b">
+      <c r="AA41" t="b">
         <v>1</v>
       </c>
     </row>

--- a/occupations/occupations_zh.xlsx
+++ b/occupations/occupations_zh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA41"/>
+  <dimension ref="A1:AB41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,15 +522,20 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
+          <t>deepseek</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
           <t>zh_mean</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>zh_p_value</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>zh_significant</t>
         </is>
@@ -603,13 +608,14 @@
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="n">
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="n">
         <v>2.117647058823529</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>1.092693878249417e-09</v>
       </c>
-      <c r="AA2" t="b">
+      <c r="AB2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -680,13 +686,14 @@
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="n">
-        <v>2</v>
-      </c>
+      <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA3" t="n">
         <v>1.827768459858535e-11</v>
       </c>
-      <c r="AA3" t="b">
+      <c r="AB3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -770,12 +777,15 @@
         <v>3</v>
       </c>
       <c r="Y4" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z4" t="n">
         <v>1.941176470588235</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AA4" t="n">
         <v>2.762581850206041e-12</v>
       </c>
-      <c r="AA4" t="b">
+      <c r="AB4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -859,12 +869,15 @@
         <v>3</v>
       </c>
       <c r="Y5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z5" t="n">
         <v>1.882352941176471</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AA5" t="n">
         <v>6.926729059048881e-10</v>
       </c>
-      <c r="AA5" t="b">
+      <c r="AB5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -948,12 +961,15 @@
         <v>2.5</v>
       </c>
       <c r="Y6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z6" t="n">
         <v>1.588235294117647</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AA6" t="n">
         <v>3.801807125638989e-07</v>
       </c>
-      <c r="AA6" t="b">
+      <c r="AB6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1037,12 +1053,15 @@
         <v>2</v>
       </c>
       <c r="Y7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Z7" t="n">
         <v>1.529411764705882</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AA7" t="n">
         <v>6.696565200862248e-07</v>
       </c>
-      <c r="AA7" t="b">
+      <c r="AB7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1126,12 +1145,15 @@
         <v>1.5</v>
       </c>
       <c r="Y8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Z8" t="n">
         <v>1.411764705882353</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AA8" t="n">
         <v>1.280319041817024e-05</v>
       </c>
-      <c r="AA8" t="b">
+      <c r="AB8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1215,12 +1237,15 @@
         <v>2</v>
       </c>
       <c r="Y9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z9" t="n">
         <v>1.294117647058824</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AA9" t="n">
         <v>2.697126824126461e-05</v>
       </c>
-      <c r="AA9" t="b">
+      <c r="AB9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1304,12 +1329,15 @@
         <v>2</v>
       </c>
       <c r="Y10" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="Z10" t="n">
         <v>1.294117647058824</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AA10" t="n">
         <v>0.0002958649633257207</v>
       </c>
-      <c r="AA10" t="b">
+      <c r="AB10" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1393,12 +1421,15 @@
         <v>2</v>
       </c>
       <c r="Y11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z11" t="n">
         <v>1.235294117647059</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AA11" t="n">
         <v>0.004096205777762585</v>
       </c>
-      <c r="AA11" t="b">
+      <c r="AB11" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1482,12 +1513,15 @@
         <v>1</v>
       </c>
       <c r="Y12" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="Z12" t="n">
         <v>1.117647058823529</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AA12" t="n">
         <v>0.0001395229231666867</v>
       </c>
-      <c r="AA12" t="b">
+      <c r="AB12" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1571,12 +1605,15 @@
         <v>2</v>
       </c>
       <c r="Y13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Z13" t="n">
         <v>1.117647058823529</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AA13" t="n">
         <v>0.0001395229231666867</v>
       </c>
-      <c r="AA13" t="b">
+      <c r="AB13" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1660,12 +1697,15 @@
         <v>1</v>
       </c>
       <c r="Y14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z14" t="n">
         <v>1.117647058823529</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AA14" t="n">
         <v>0.0002710431219186233</v>
       </c>
-      <c r="AA14" t="b">
+      <c r="AB14" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1749,12 +1789,15 @@
         <v>2.5</v>
       </c>
       <c r="Y15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z15" t="n">
         <v>1.058823529411765</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AA15" t="n">
         <v>0.001005465079971188</v>
       </c>
-      <c r="AA15" t="b">
+      <c r="AB15" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1838,12 +1881,15 @@
         <v>1</v>
       </c>
       <c r="Y16" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="Z16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA16" t="n">
         <v>0.0007969978990262528</v>
       </c>
-      <c r="AA16" t="b">
+      <c r="AB16" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1914,13 +1960,14 @@
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA17" t="n">
         <v>0.0007969978990262528</v>
       </c>
-      <c r="AA17" t="b">
+      <c r="AB17" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2004,12 +2051,15 @@
         <v>-1</v>
       </c>
       <c r="Y18" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="Z18" t="n">
         <v>0.8823529411764706</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AA18" t="n">
         <v>0.0006206553970069508</v>
       </c>
-      <c r="AA18" t="b">
+      <c r="AB18" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2093,12 +2143,15 @@
         <v>0.5</v>
       </c>
       <c r="Y19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Z19" t="n">
         <v>0.7058823529411765</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AA19" t="n">
         <v>0.01336629354226439</v>
       </c>
-      <c r="AA19" t="b">
+      <c r="AB19" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2182,12 +2235,15 @@
         <v>1.5</v>
       </c>
       <c r="Y20" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Z20" t="n">
         <v>0.5882352941176471</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AA20" t="n">
         <v>0.01319208422841652</v>
       </c>
-      <c r="AA20" t="b">
+      <c r="AB20" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2271,12 +2327,15 @@
         <v>2</v>
       </c>
       <c r="Y21" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Z21" t="n">
         <v>0.5882352941176471</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AA21" t="n">
         <v>0.01319208422841654</v>
       </c>
-      <c r="AA21" t="b">
+      <c r="AB21" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2360,12 +2419,15 @@
         <v>-1</v>
       </c>
       <c r="Y22" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="Z22" t="n">
         <v>-0.3529411764705883</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AA22" t="n">
         <v>0.1106801052944805</v>
       </c>
-      <c r="AA22" t="b">
+      <c r="AB22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2449,12 +2511,15 @@
         <v>-1</v>
       </c>
       <c r="Y23" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="Z23" t="n">
         <v>-0.6470588235294118</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AA23" t="n">
         <v>0.003701533819761143</v>
       </c>
-      <c r="AA23" t="b">
+      <c r="AB23" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2538,12 +2603,15 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="Z24" t="n">
         <v>-0.7058823529411765</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AA24" t="n">
         <v>0.01803579234950097</v>
       </c>
-      <c r="AA24" t="b">
+      <c r="AB24" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2627,12 +2695,15 @@
         <v>-1.5</v>
       </c>
       <c r="Y25" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="Z25" t="n">
         <v>-0.7647058823529411</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AA25" t="n">
         <v>0.0006924292804729781</v>
       </c>
-      <c r="AA25" t="b">
+      <c r="AB25" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2716,12 +2787,15 @@
         <v>-0.5</v>
       </c>
       <c r="Y26" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="Z26" t="n">
         <v>-0.8235294117647058</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AA26" t="n">
         <v>0.004096205777762601</v>
       </c>
-      <c r="AA26" t="b">
+      <c r="AB26" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2805,12 +2879,15 @@
         <v>-1.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>-1</v>
+        <v>-1.1</v>
       </c>
       <c r="Z27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA27" t="n">
         <v>2.554368581541558e-05</v>
       </c>
-      <c r="AA27" t="b">
+      <c r="AB27" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2894,12 +2971,15 @@
         <v>-1.5</v>
       </c>
       <c r="Y28" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="Z28" t="n">
         <v>-1.058823529411765</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="AA28" t="n">
         <v>7.484609283981036e-05</v>
       </c>
-      <c r="AA28" t="b">
+      <c r="AB28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2983,12 +3063,15 @@
         <v>2</v>
       </c>
       <c r="Y29" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Z29" t="n">
         <v>-1.058823529411765</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="AA29" t="n">
         <v>2.510694042917279e-05</v>
       </c>
-      <c r="AA29" t="b">
+      <c r="AB29" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3072,12 +3155,15 @@
         <v>-1.5</v>
       </c>
       <c r="Y30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z30" t="n">
         <v>-1.058823529411765</v>
       </c>
-      <c r="Z30" t="n">
+      <c r="AA30" t="n">
         <v>0.0001758016295511792</v>
       </c>
-      <c r="AA30" t="b">
+      <c r="AB30" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3161,12 +3247,15 @@
         <v>-2</v>
       </c>
       <c r="Y31" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="Z31" t="n">
         <v>-1.235294117647059</v>
       </c>
-      <c r="Z31" t="n">
+      <c r="AA31" t="n">
         <v>3.705792161508962e-05</v>
       </c>
-      <c r="AA31" t="b">
+      <c r="AB31" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3250,12 +3339,15 @@
         <v>-2.5</v>
       </c>
       <c r="Y32" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="Z32" t="n">
         <v>-1.352941176470588</v>
       </c>
-      <c r="Z32" t="n">
+      <c r="AA32" t="n">
         <v>2.524731744928532e-06</v>
       </c>
-      <c r="AA32" t="b">
+      <c r="AB32" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3339,12 +3431,15 @@
         <v>-2.5</v>
       </c>
       <c r="Y33" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="Z33" t="n">
         <v>-1.470588235294118</v>
       </c>
-      <c r="Z33" t="n">
+      <c r="AA33" t="n">
         <v>8.348423935449776e-06</v>
       </c>
-      <c r="AA33" t="b">
+      <c r="AB33" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3428,12 +3523,15 @@
         <v>-1</v>
       </c>
       <c r="Y34" t="n">
+        <v>-1.75</v>
+      </c>
+      <c r="Z34" t="n">
         <v>-1.529411764705882</v>
       </c>
-      <c r="Z34" t="n">
+      <c r="AA34" t="n">
         <v>1.601760628077529e-07</v>
       </c>
-      <c r="AA34" t="b">
+      <c r="AB34" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3517,12 +3615,15 @@
         <v>-2.5</v>
       </c>
       <c r="Y35" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="Z35" t="n">
         <v>-1.588235294117647</v>
       </c>
-      <c r="Z35" t="n">
+      <c r="AA35" t="n">
         <v>2.510694042917283e-05</v>
       </c>
-      <c r="AA35" t="b">
+      <c r="AB35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3606,12 +3707,15 @@
         <v>-2.5</v>
       </c>
       <c r="Y36" t="n">
+        <v>-2.95</v>
+      </c>
+      <c r="Z36" t="n">
         <v>-1.705882352941176</v>
       </c>
-      <c r="Z36" t="n">
+      <c r="AA36" t="n">
         <v>1.937965230623536e-08</v>
       </c>
-      <c r="AA36" t="b">
+      <c r="AB36" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3695,12 +3799,15 @@
         <v>-1.5</v>
       </c>
       <c r="Y37" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="Z37" t="n">
         <v>-1.764705882352941</v>
       </c>
-      <c r="Z37" t="n">
+      <c r="AA37" t="n">
         <v>7.616579787587033e-09</v>
       </c>
-      <c r="AA37" t="b">
+      <c r="AB37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3784,12 +3891,15 @@
         <v>-0.5</v>
       </c>
       <c r="Y38" t="n">
+        <v>-2.85</v>
+      </c>
+      <c r="Z38" t="n">
         <v>-1.764705882352941</v>
       </c>
-      <c r="Z38" t="n">
+      <c r="AA38" t="n">
         <v>1.696706015188322e-07</v>
       </c>
-      <c r="AA38" t="b">
+      <c r="AB38" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3873,12 +3983,15 @@
         <v>-2</v>
       </c>
       <c r="Y39" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="Z39" t="n">
         <v>-1.882352941176471</v>
       </c>
-      <c r="Z39" t="n">
+      <c r="AA39" t="n">
         <v>6.926729059048881e-10</v>
       </c>
-      <c r="AA39" t="b">
+      <c r="AB39" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3962,12 +4075,15 @@
         <v>-2.8</v>
       </c>
       <c r="Y40" t="n">
-        <v>-2</v>
+        <v>-2.98</v>
       </c>
       <c r="Z40" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AA40" t="n">
         <v>3.109305432132037e-09</v>
       </c>
-      <c r="AA40" t="b">
+      <c r="AB40" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4051,12 +4167,15 @@
         <v>-2.5</v>
       </c>
       <c r="Y41" t="n">
+        <v>-2.85</v>
+      </c>
+      <c r="Z41" t="n">
         <v>-2.058823529411764</v>
       </c>
-      <c r="Z41" t="n">
+      <c r="AA41" t="n">
         <v>5.815361510905422e-11</v>
       </c>
-      <c r="AA41" t="b">
+      <c r="AB41" t="b">
         <v>1</v>
       </c>
     </row>
